--- a/xlsx/curved.xlsx
+++ b/xlsx/curved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F1F6C-589E-4D97-948A-A73AF6181E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2896CF-DDDF-4C16-BF23-D9E74A501F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="11625" xr2:uid="{40FB010E-1C1B-4D5C-B77B-D2B1DC9AE384}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="11625" activeTab="1" xr2:uid="{40FB010E-1C1B-4D5C-B77B-D2B1DC9AE384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51B9C83-45BE-4573-8A97-E43A91E65705}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
@@ -633,8 +633,20 @@
       <c r="D2">
         <v>0.98339058803828405</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>1.1020867528034295</v>
+      </c>
+      <c r="G2">
+        <v>0.98987942759371061</v>
+      </c>
+      <c r="H2">
+        <v>0.98427631257463333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.4</v>
       </c>
@@ -647,8 +659,20 @@
       <c r="D3">
         <v>0.98293390917419832</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>1.0609966590613258</v>
+      </c>
+      <c r="G3">
+        <v>0.98987858241044879</v>
+      </c>
+      <c r="H3">
+        <v>0.98427627710163668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.3</v>
       </c>
@@ -661,8 +685,20 @@
       <c r="D4">
         <v>0.98194884849281183</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>1.0305243296760587</v>
+      </c>
+      <c r="G4">
+        <v>0.98987782942911917</v>
+      </c>
+      <c r="H4">
+        <v>0.98427620050426956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -675,8 +711,20 @@
       <c r="D5">
         <v>0.97914631686067433</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>1.0095066251884719</v>
+      </c>
+      <c r="G5">
+        <v>0.98987704793475628</v>
+      </c>
+      <c r="H5">
+        <v>0.98427598191502608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.1</v>
       </c>
@@ -689,8 +737,20 @@
       <c r="D6">
         <v>0.96431131772071155</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>0.99718089029023038</v>
+      </c>
+      <c r="G6">
+        <v>0.98987512415135959</v>
+      </c>
+      <c r="H6">
+        <v>0.98427480796713851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.05</v>
       </c>
@@ -703,8 +763,20 @@
       <c r="D7">
         <v>0.90958531822165645</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.99412503664371066</v>
+      </c>
+      <c r="G7">
+        <v>0.98986872766763656</v>
+      </c>
+      <c r="H7">
+        <v>0.98427021661813019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.3333333333333333E-2</v>
       </c>
@@ -717,8 +789,20 @@
       <c r="D8">
         <v>0.83197714031280179</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.99355002402858739</v>
+      </c>
+      <c r="G8">
+        <v>0.9898588350917652</v>
+      </c>
+      <c r="H8">
+        <v>0.98426290636634928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -731,8 +815,20 @@
       <c r="D9">
         <v>0.74457393375968361</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0.99322928868449889</v>
+      </c>
+      <c r="G9">
+        <v>0.9898316810173784</v>
+      </c>
+      <c r="H9">
+        <v>0.98424184591086883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.02</v>
       </c>
@@ -745,8 +841,20 @@
       <c r="D10">
         <v>0.65740012109945156</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>0.99301440893258441</v>
+      </c>
+      <c r="G10">
+        <v>0.98975170315591887</v>
+      </c>
+      <c r="H10">
+        <v>0.98416848823640046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.01</v>
       </c>
@@ -759,8 +867,20 @@
       <c r="D11">
         <v>0.34042566314440198</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.99283293522190652</v>
+      </c>
+      <c r="G11">
+        <v>0.98961118038111062</v>
+      </c>
+      <c r="H11">
+        <v>0.98398607030644059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -773,8 +893,20 @@
       <c r="D12">
         <v>0.11937723685059598</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.99270419602391247</v>
+      </c>
+      <c r="G12">
+        <v>0.98948825293054021</v>
+      </c>
+      <c r="H12">
+        <v>0.98378903728591305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.3333333333333335E-3</v>
       </c>
@@ -787,8 +919,20 @@
       <c r="D13">
         <v>5.7600579637769961E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>2E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.99251493172018257</v>
+      </c>
+      <c r="G13">
+        <v>0.98929696306389026</v>
+      </c>
+      <c r="H13">
+        <v>0.98346095975749637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -801,8 +945,20 @@
       <c r="D14">
         <v>3.3421466178456281E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.99259874303630857</v>
+      </c>
+      <c r="G14">
+        <v>0.98938244857868196</v>
+      </c>
+      <c r="H14">
+        <v>0.98360919899999688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2E-3</v>
       </c>
@@ -815,8 +971,20 @@
       <c r="D15">
         <v>2.1709039610774045E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.99333783965030986</v>
+      </c>
+      <c r="G15">
+        <v>0.98984620316195671</v>
+      </c>
+      <c r="H15">
+        <v>0.98425329912036075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1E-3</v>
       </c>
@@ -828,6 +996,18 @@
       </c>
       <c r="D16">
         <v>5.5382090004125022E-3</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.99231049080363809</v>
+      </c>
+      <c r="G16">
+        <v>0.98908617167276902</v>
+      </c>
+      <c r="H16">
+        <v>0.98309051132011216</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,15 +1048,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32181599-5501-4051-85D9-261C092E6098}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -903,8 +1083,20 @@
       <c r="D2">
         <v>6.6616169149246217E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2.3627160171119863E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.2904879701168616E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.7602765571041604E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -917,8 +1109,20 @@
       <c r="D3">
         <v>8.0200279749564535E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.60772745746158674</v>
+      </c>
+      <c r="G3">
+        <v>0.58196309984730965</v>
+      </c>
+      <c r="H3">
+        <v>0.54278157770699387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -931,8 +1135,20 @@
       <c r="D4">
         <v>0.28502437836733702</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.80911933640285816</v>
+      </c>
+      <c r="G4">
+        <v>0.76061934178260804</v>
+      </c>
+      <c r="H4">
+        <v>0.69518918582203681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -945,8 +1161,20 @@
       <c r="D5">
         <v>0.61158059308970913</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.90897958534017864</v>
+      </c>
+      <c r="G5">
+        <v>0.87671563821560472</v>
+      </c>
+      <c r="H5">
+        <v>0.83231393132556741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30</v>
       </c>
@@ -959,8 +1187,20 @@
       <c r="D6">
         <v>0.77163988384004023</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0.96570375449477486</v>
+      </c>
+      <c r="G6">
+        <v>0.94587563619614112</v>
+      </c>
+      <c r="H6">
+        <v>0.92028565040825516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40</v>
       </c>
@@ -973,8 +1213,20 @@
       <c r="D7">
         <v>0.85099741921328564</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0.97986717060230955</v>
+      </c>
+      <c r="G7">
+        <v>0.96507206059048345</v>
+      </c>
+      <c r="H7">
+        <v>0.94729900554978808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50</v>
       </c>
@@ -987,8 +1239,20 @@
       <c r="D8">
         <v>0.89459221523124188</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>0.98632205489393654</v>
+      </c>
+      <c r="G8">
+        <v>0.97415722224169565</v>
+      </c>
+      <c r="H8">
+        <v>0.96057787138865836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1000,6 +1264,32 @@
       </c>
       <c r="D9">
         <v>0.96431131772071155</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>0.99003739474718855</v>
+      </c>
+      <c r="G9">
+        <v>0.97947752272387134</v>
+      </c>
+      <c r="H9">
+        <v>0.96849883626592881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0.99718089029023038</v>
+      </c>
+      <c r="G10">
+        <v>0.98987512415135959</v>
+      </c>
+      <c r="H10">
+        <v>0.98427480796713851</v>
       </c>
     </row>
   </sheetData>
